--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -57,30 +57,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ticket2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/applet/ticketAudit</t>
+  </si>
+  <si>
+    <t>/applet/ticketAudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我舅舅家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1022,拒绝时必须填原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ticket1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ticket2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/applet/ticketAudit</t>
-  </si>
-  <si>
-    <t>/applet/ticketAudit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我舅舅家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1022,拒绝时必须填原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +408,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -445,10 +445,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1310</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C3">
         <v>1310</v>
@@ -480,13 +480,13 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>400</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buxiangjie/PycharmProjects/LianTuoTianJi/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buxiangjie/PycharmProjects/I-G/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,50 +37,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ticket2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/applet/ticketAudit</t>
-  </si>
-  <si>
-    <t>/applet/ticketAudit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我舅舅家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1022,拒绝时必须填原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ticket1</t>
+    <t>/busi-api/api/v1/busi/project/queryRepaymentPlan</t>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/queryRepaymentPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款计划查询:正常传参</t>
+    <rPh sb="0" eb="1">
+      <t>huan kuan ji hua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha uxn</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zheng chang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>can</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款计划查询:不传参</t>
+    <rPh sb="0" eb="1">
+      <t>huan kuan ji hua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha uxn</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>can</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-TBC-SOURCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-TBC-SIGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content-Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbc_zhtb_lmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVL/GCFyovKP7D3sJGmSQ4KZfTbv9G/kb3F+OnEvFyygkcxHLzb8AhpIYjYtulyqHRC8Ap3jaaFZmqKCEd+KQx+13BK2de3F7Wsk4jaLI2eHYaA1B5eRf5CNrml9y30khz8CX7kw+vhT7x3v+ap3Q7yIGD0zuMldmP16eptrP/PAjl55lRp2umtLCdPpW1HoMP6mo4hv0WXR2wnzAkyMzk3vL4fVyQqemmugRp6gsBhEvGW7IGsWQ1cwv1DfJ0HBHQmz4SZxEmHXev2pxktkZMMPIwRR+Z1HvX1UYaCJ6hEbi9mXn39h67NHdYnnVw9EwG6QRMt/ukiwMOrT0iCrJA==</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_projectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30844098113970176</t>
+  </si>
+  <si>
+    <t>30844098113970176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30844098113970176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4RkC6rVQ4/QqaqS1eSNm82MOuUC1iI3R0r4rpHs6Oq/T9ClqDOFUqmzJ+MVOWCTu3+q5i3BddMv09bAvODFfJVpFzctwKSHEqEY76MbAQ8+Zv2IMhrm/MhtjbVD1B4eU6JZFRkvEGa9PXWyY52h+Js7DkS0WP197MnK9U0YIsw3l9PcCy02horehLjXSkVQfBgF1zYKU+ht+uDjbYJOZewYp68/lVW7coBAZw/U+CjqgqjNAoZWW7PyN5PoGy3oFTsoLVV5c5tY7po8ZezXfMrC0IPxY53pU2EX/9ml8fpzNB5hvVcq/IkgxkCni1Qxzi1E1L3GkTQsSLVAgHfoag==</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件id不能为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +160,14 @@
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF505050"/>
+      <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -125,9 +192,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -405,19 +473,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,68 +496,87 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>2000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1310</v>
-      </c>
-      <c r="D2">
-        <v>270</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1310</v>
-      </c>
-      <c r="D3">
-        <v>270</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3">
-        <v>400</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
+        <v>4000</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ticketAudit" sheetId="1" r:id="rId1"/>
+    <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
+    <sheet name="credit_apply_data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,109 +38,152 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/project/queryRepaymentPlan</t>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/project/queryRepaymentPlan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款计划查询:正常传参</t>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "roma",
+  "sourceCode": "roma",
+  "sourceUserId": "46",
+  "userId": 37259945271382016,
+  "productCode": "XJ_ROMA_CAR"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户额度查询</t>
     <rPh sb="0" eb="1">
-      <t>huan kuan ji hua</t>
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>e du</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>cha uxn</t>
+      <t>cha xun</t>
     </rPh>
-    <rPh sb="7" eb="8">
-      <t>zheng chang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/credit/queryUserAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信</t>
+    <rPh sb="0" eb="1">
+      <t>e du</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>can</t>
+    <rPh sb="2" eb="3">
+      <t>shou xin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还款计划查询:不传参</t>
-    <rPh sb="0" eb="1">
-      <t>huan kuan ji hua</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>cha uxn</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>can</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X-TBC-SOURCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X-TBC-SIGN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content-Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbc_zhtb_lmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVL/GCFyovKP7D3sJGmSQ4KZfTbv9G/kb3F+OnEvFyygkcxHLzb8AhpIYjYtulyqHRC8Ap3jaaFZmqKCEd+KQx+13BK2de3F7Wsk4jaLI2eHYaA1B5eRf5CNrml9y30khz8CX7kw+vhT7x3v+ap3Q7yIGD0zuMldmP16eptrP/PAjl55lRp2umtLCdPpW1HoMP6mo4hv0WXR2wnzAkyMzk3vL4fVyQqemmugRp6gsBhEvGW7IGsWQ1cwv1DfJ0HBHQmz4SZxEmHXev2pxktkZMMPIwRR+Z1HvX1UYaCJ6hEbi9mXn39h67NHdYnnVw9EwG6QRMt/ukiwMOrT0iCrJA==</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content_projectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30844098113970176</t>
-  </si>
-  <si>
-    <t>30844098113970176</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30844098113970176</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4RkC6rVQ4/QqaqS1eSNm82MOuUC1iI3R0r4rpHs6Oq/T9ClqDOFUqmzJ+MVOWCTu3+q5i3BddMv09bAvODFfJVpFzctwKSHEqEY76MbAQ8+Zv2IMhrm/MhtjbVD1B4eU6JZFRkvEGa9PXWyY52h+Js7DkS0WP197MnK9U0YIsw3l9PcCy02horehLjXSkVQfBgF1zYKU+ht+uDjbYJOZewYp68/lVW7coBAZw/U+CjqgqjNAoZWW7PyN5PoGy3oFTsoLVV5c5tY7po8ZezXfMrC0IPxY53pU2EX/9ml8fpzNB5hvVcq/IkgxkCni1Qxzi1E1L3GkTQsSLVAgHfoag==</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进件id不能为空</t>
+    <t>{
+  "channel": "roma",
+  "sourceCode": "roma",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_ROMA_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00"
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 1000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任工资",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,14 +204,6 @@
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF505050"/>
-      <name val="DengXian"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -192,10 +228,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -473,111 +516,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="38.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>2000</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2">
-        <v>200</v>
-      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3">
-        <v>4000</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3">
-        <v>200</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId2"/>
+    <sheet name="credit_query_result" sheetId="3" r:id="rId3"/>
+    <sheet name="test_project" sheetId="4" r:id="rId4"/>
+    <sheet name="project_query_apply_result" sheetId="5" r:id="rId5"/>
+    <sheet name="upload" sheetId="6" r:id="rId6"/>
+    <sheet name="contract_sign" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +189,215 @@
     "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
   }
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "roma",
+  "sourceCode": "roma",
+  "creditId": "37259945351061504"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "applyInfo":
+  {
+    "applicationPeriod":60,
+    "applyAmount":5000.00,
+    "applySource":"api",
+    "applyTerm":1,
+    "applyTime":"2019-02-27 15:02:27",
+    "financeChannel":1,
+    "liveAddressBorough":"110000",
+    "liveAddressCity":"110100",
+    "liveAddressProvince":"110105",
+    "liveDetailAddress":"北京市朝阳区",
+    "productCode":"XJ_ROMA_CAR"
+  },
+  "cardInfo":
+  {
+    "bankCardNo":"6217002200003225701",
+    "bankCode":34,
+    "bankNameSub":"建设银行",
+    "bankPhone":"18366582857"
+  },
+  "contactInfo":
+  {
+    "firstContactCardNum":"341182198612102661",
+    "firstContactName":"王倩",
+    "firstContactPhone":"18205502789",
+    "firstContactRelationship":2,
+    "spouseCardNum":"341182198612102661",
+    "spouseName":"王倩"
+  },
+  "creditInfo":
+  {
+    "sourceCreditAmt":200000,
+    "sourceCreditRate":0.12
+  },
+  "extraInfo":
+  {
+    "carSeries":"途乐(进口)",
+    "estimatedValue":"423900.0",
+    "licenseNum":"京LFT755",
+    "vehicleType":"2017款 途乐(进口) 4.0L 美版",
+    "vin":"JN8BY2NY4H9009534"
+  },
+  "imageInfo":
+  {
+    "carControlImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-5ca7f9ef5cdf18d5d39aea5809ca04ed.jpg",
+    "carDashboardImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-00d073d10a185f1e1caacc4c739ea7c5.jpg",
+    "carDealerDrivingLicenseFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-ffd90152d6ca2dcee42a00647566b5c1.jpg",
+    "carFrontImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-4e4772442bbfd86b5119d42d87afd58a.jpg",
+    "carRegImage":"http://roma-photo-north2.oss-cn-beijing.aliyuncs.com/Android-OSS-8fb3b0a67694117d19bf9eb19ef74943.jpg"
+  },
+  "loanInfo":
+  {
+    "cycleInterval":60,
+    "interestRate":0.216,
+    "loanAmount":500.00,
+    "loanTerm":1,
+    "repayMethod":"AT",
+    "assetInterestRate": 0.130000,
+    "assetInterestRatePeriod": 1
+  },
+  "orderDetail":
+  {
+    "averageCarRelatedAmt":150000,
+    "averageCarRelatedCnt":"",
+    "boothNoS":"",
+    "carCompanyNames":"",
+    "companyName":"明光市永达汽车销售有限公司",
+    "companyType":"有限责任公司(自然人投资或控股)",
+    "currentBusinessScale":1,
+    "dealerName":"明光市永达汽车销售有限公司",
+    "employeeNum":8,
+    "enterpriseRegisterNumber":"320114000155750",
+    "hasCompany":0,
+    "incumbencyPosition":"",
+    "manageAddressBorough":"341182",
+    "manageAddressCity":"341100",
+    "manageAddressProvince":"340000",
+    "manageCarPreferences":3,
+    "manageDetailAddress":"明光街道安徽省明光市抹山大道111号徽商大市场a2-8.9.10",
+    "manageEvaluation":1,
+    "manageTime":7,
+    "secondHandCarTradeName":"滁州市旧机动车交易有限公司二手车市场",
+    "shareRatio":"",
+    "stallNum":50,
+    "stockCarPriceCycleMeanValue":55.93,
+    "stockCarPriceCycleMidValue":52,
+    "stockCarPriceMeanValue":49750,
+    "stockCarPriceMidValue":40900,
+    "stockCarPriceRange":"22000.0至105800.0",
+    "stockCarTotalNum":"6",
+    "totalCarRelatedAmt":22000000.00,
+    "totalCarRelatedCnt":146
+  },
+  "personalInfo":
+  {
+    "age":35,
+    "cardNum":"61070119850813550X",
+    "custName":"黎丹蝶",
+    "fourVerifyResult":1,
+    "hasChildren":1,
+    "maritalStatus":1,
+    "personalPurchaseHouse":2,
+    "phone":"18366582979",
+    "registeredAddressBorough":"110000",
+    "registeredAddressCity":"110100",
+    "registeredAddressProvince":"110105",
+    "registeredDetailAddress":"西林街道嘉山大道1号汇金广场2号楼503",
+    "sex":0
+  },
+  "riskSuggestion":
+  {
+    "disburseNum":5,
+    "firstCreditDate":"2019-02-20 17:01:42",
+    "lendingAmount":0,
+    "lendingNum":0,
+    "repayNum":0
+  },
+  "channel":"roma",
+  "sourceCode":"roma",
+  "sourceProjectId":"10357490",
+  "sourceUserId":"46",
+  "transactionId":"Test_49"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/credit/queryResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额度授信结果查询</t>
+    <rPh sb="0" eb="1">
+      <t>e du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou xin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cha xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/queryApplyResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件结果查询接口</t>
+    <rPh sb="2" eb="3">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/file/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像传输接口</t>
+    <rPh sb="0" eb="1">
+      <t>ying xiang chuan shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同传输接口</t>
+    <rPh sb="0" eb="1">
+      <t>he tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuan shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/contract/sign</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,4 +837,237 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="query_user_amount" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,11 @@
     <sheet name="project_query_apply_result" sheetId="5" r:id="rId5"/>
     <sheet name="upload" sheetId="6" r:id="rId6"/>
     <sheet name="contract_sign" sheetId="7" r:id="rId7"/>
+    <sheet name="contract_query" sheetId="8" r:id="rId8"/>
+    <sheet name="project_loan" sheetId="9" r:id="rId9"/>
+    <sheet name="pre_clear_calculate" sheetId="10" r:id="rId10"/>
+    <sheet name="repayment_plan" sheetId="11" r:id="rId11"/>
+    <sheet name="receipts_notice" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,6 +403,129 @@
   </si>
   <si>
     <t>/busi-api/api/v1/busi/contract/sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看协议结果接口</t>
+    <rPh sb="0" eb="1">
+      <t>cha kan xie yi jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/contract/query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "associationId":"34745104849707008",
+  "channel":"roma",
+  "contractId":"34746648307441664",
+  "contractType":2,
+  "requestTime":"2019-02-13 11:29:29",
+  "serviceSn":"1547902959779",
+  "sourceCode":"roma",
+  "sourceUserId":"36"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款接口</t>
+    <rPh sb="0" eb="1">
+      <t>fang kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/loan/pfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "roma",
+  "sourceCode": "roma",
+  "sourceProjectId": "10357490",
+  "projectId": "37562553282338816",
+  "sourceUserId": "46",
+  "serviceSn": "154790",
+  "amount": 500.00,
+  "currency": "CNY",
+  "accountNo": "6217002200003225701",
+  "accountType": 0,
+  "accountProp": 0,
+  "accountName": "黎丹蝶",
+  "id": "61070119850813550X",
+  "bankPhone": "18366582857",
+  "idType": 0,
+  "bankCode": 34
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前结清试算接口</t>
+    <rPh sb="0" eb="1">
+      <t>ti qian jie qing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/preClearCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "projectId": "35734386141831168"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当前还款计划接口</t>
+    <rPh sb="0" eb="1">
+      <t>cha xun dang qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huan kuan ji hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "projectId":"35734386141831168"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/queryRepaymentPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购后收款通知接口</t>
+    <rPh sb="0" eb="1">
+      <t>hui gou hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou kuan tong zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/receiptsNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "projectId":"30844098113970111",
+  "clearTime":"2019-01-01 11:11:11"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,6 +904,150 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
@@ -937,7 +1209,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1070,4 +1342,100 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>